--- a/config_2.2/act_hhl_ty_config.xlsx
+++ b/config_2.2/act_hhl_ty_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>line|</t>
   </si>
@@ -92,24 +92,6 @@
     <t>type|类型 实物 1 金币 0</t>
   </si>
   <si>
-    <t>太阳取暖器</t>
-  </si>
-  <si>
-    <t>dhhl_swjl_1</t>
-  </si>
-  <si>
-    <t>高档暖手宝</t>
-  </si>
-  <si>
-    <t>dhhl_swjl_2</t>
-  </si>
-  <si>
-    <t>羊毛围巾</t>
-  </si>
-  <si>
-    <t>dhhl_swjl_3</t>
-  </si>
-  <si>
     <t>2000万金币</t>
   </si>
   <si>
@@ -119,15 +101,9 @@
     <t>高级核弹</t>
   </si>
   <si>
-    <t>dhhl_icon_gjhd</t>
-  </si>
-  <si>
     <t>中级核弹</t>
   </si>
   <si>
-    <t>dhhl_icon_zjhd</t>
-  </si>
-  <si>
     <t>200万金币</t>
   </si>
   <si>
@@ -137,33 +113,6 @@
     <t>初级核弹</t>
   </si>
   <si>
-    <t>dhhl_icon_cjhd</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hhl_swjl_1</t>
-    </r>
-  </si>
-  <si>
     <t>1000万金币</t>
   </si>
   <si>
@@ -173,13 +122,7 @@
     <t>小金锤</t>
   </si>
   <si>
-    <t>dhhl_icon_jc</t>
-  </si>
-  <si>
     <t>小银锤</t>
-  </si>
-  <si>
-    <t>dhhl_icon_yc</t>
   </si>
   <si>
     <t>ID</t>
@@ -242,10 +185,6 @@
     <t>110,10045</t>
   </si>
   <si>
-    <t>act_001_hhl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>shop_config|商场加赠配置</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -260,6 +199,102 @@
   <si>
     <t>9,10,11,12,13,14,15,16</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>act_00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_hhl</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年礼盒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>核桃花生奶16盒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼大米5斤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年礼盒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>核桃花生奶16盒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼大米5斤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年礼盒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼大米5斤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年礼盒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_002_hhl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>swjl_1</t>
+  </si>
+  <si>
+    <t>swjl_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>swjl_2</t>
+  </si>
+  <si>
+    <t>swjl_3</t>
+  </si>
+  <si>
+    <t>icon_gjhd</t>
+  </si>
+  <si>
+    <t>icon_zjhd</t>
+  </si>
+  <si>
+    <t>icon_cjhd</t>
+  </si>
+  <si>
+    <t>icon_jc</t>
+  </si>
+  <si>
+    <t>icon_yc</t>
   </si>
 </sst>
 </file>
@@ -296,7 +331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +362,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -343,7 +384,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -371,9 +412,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -383,13 +421,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -724,10 +768,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -762,13 +806,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -780,10 +824,10 @@
         <v>13</v>
       </c>
       <c r="J2" s="6">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="K2" s="6">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -797,13 +841,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1">
-        <v>31</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -815,10 +859,10 @@
         <v>16</v>
       </c>
       <c r="J3" s="6">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="K3" s="6">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
   </sheetData>
@@ -831,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -870,19 +914,19 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="11">
+      <c r="B2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="10">
         <v>15000</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="11">
+      <c r="E2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="10">
         <v>1</v>
       </c>
     </row>
@@ -890,19 +934,19 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="B3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="10">
         <v>8000</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="E3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="10">
         <v>1</v>
       </c>
     </row>
@@ -910,19 +954,19 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="B4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="10">
         <v>5000</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="E4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="10">
         <v>1</v>
       </c>
     </row>
@@ -930,17 +974,17 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="B5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="10">
         <v>24000</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10">
         <v>0</v>
       </c>
     </row>
@@ -948,17 +992,17 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="B6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="10">
         <v>12000</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
         <v>0</v>
       </c>
     </row>
@@ -966,17 +1010,17 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="10">
         <v>6000</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10">
         <v>0</v>
       </c>
     </row>
@@ -984,17 +1028,17 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="B8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="10">
         <v>2400</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1002,167 +1046,167 @@
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="B9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="10">
         <v>1200</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="13">
+        <v>15000</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="13">
+        <v>8000</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="13">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="15">
-        <v>15000</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="12">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="15">
-        <v>8000</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="C13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="13">
+        <v>24000</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="13">
+        <v>12000</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="13">
+        <v>6000</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="15">
-        <v>5000</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="12">
-        <v>12</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="15">
-        <v>24000</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15">
+      <c r="D16" s="13">
+        <v>2400</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="12">
-        <v>13</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="15">
-        <v>12000</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="12">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="15">
-        <v>6000</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="12">
-        <v>15</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="15">
-        <v>2400</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-    </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="15">
+      <c r="B17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="13">
         <v>1200</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1192,19 +1236,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1215,7 +1259,7 @@
         <v>1000217</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1">
         <v>45</v>
@@ -1229,7 +1273,7 @@
         <v>1000218</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1">
         <v>90</v>
@@ -1243,7 +1287,7 @@
         <v>1000219</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1">
         <v>150</v>
@@ -1257,7 +1301,7 @@
         <v>1000220</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1">
         <v>290</v>
@@ -1271,7 +1315,7 @@
         <v>1000221</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1">
         <v>590</v>
@@ -1285,7 +1329,7 @@
         <v>1000222</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1">
         <v>1490</v>
@@ -1299,7 +1343,7 @@
         <v>1000223</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1">
         <v>2990</v>
@@ -1313,7 +1357,7 @@
         <v>1000224</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1">
         <v>7490</v>
@@ -1368,16 +1412,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -1387,7 +1425,7 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1398,7 +1436,7 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1409,7 +1447,7 @@
 </pixelators>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1419,38 +1457,44 @@
 </settings>
 </file>
 
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_2.2/act_hhl_ty_config.xlsx
+++ b/config_2.2/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>line|</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>cpl_notcjj</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,</t>
   </si>
   <si>
     <t>prop_fish_drop_act_0</t>
@@ -295,6 +292,14 @@
   </si>
   <si>
     <t>icon_yc</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -743,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D3:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -768,10 +773,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -803,25 +808,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1">
         <v>32</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="J2" s="6">
         <v>1612224000</v>
@@ -835,28 +840,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1">
         <v>33</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="J3" s="6">
         <v>1612224000</v>
@@ -875,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -892,22 +897,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -915,16 +920,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="10">
         <v>15000</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="10">
         <v>1</v>
@@ -935,16 +940,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="10">
         <v>8000</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="10">
         <v>1</v>
@@ -955,16 +960,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="10">
         <v>5000</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="10">
         <v>1</v>
@@ -975,10 +980,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="D5" s="10">
         <v>24000</v>
@@ -993,10 +998,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="10">
         <v>12000</v>
@@ -1011,10 +1016,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="10">
         <v>6000</v>
@@ -1029,10 +1034,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="D8" s="10">
         <v>2400</v>
@@ -1047,10 +1052,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="10">
         <v>1200</v>
@@ -1065,16 +1070,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="13">
         <v>15000</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
@@ -1085,16 +1090,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="13">
         <v>8000</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
@@ -1105,16 +1110,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="13">
         <v>5000</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="13">
         <v>1</v>
@@ -1125,10 +1130,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="D13" s="13">
         <v>24000</v>
@@ -1143,10 +1148,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="D14" s="13">
         <v>12000</v>
@@ -1161,10 +1166,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="13">
         <v>6000</v>
@@ -1179,10 +1184,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>28</v>
       </c>
       <c r="D16" s="13">
         <v>2400</v>
@@ -1197,10 +1202,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="13">
         <v>1200</v>
@@ -1236,19 +1241,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1259,7 +1264,7 @@
         <v>1000217</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1">
         <v>45</v>
@@ -1273,7 +1278,7 @@
         <v>1000218</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1">
         <v>90</v>
@@ -1287,7 +1292,7 @@
         <v>1000219</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1">
         <v>150</v>
@@ -1301,7 +1306,7 @@
         <v>1000220</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1">
         <v>290</v>
@@ -1315,7 +1320,7 @@
         <v>1000221</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1">
         <v>590</v>
@@ -1329,7 +1334,7 @@
         <v>1000222</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1">
         <v>1490</v>
@@ -1343,7 +1348,7 @@
         <v>1000223</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1">
         <v>2990</v>
@@ -1357,7 +1362,7 @@
         <v>1000224</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1">
         <v>7490</v>
@@ -1416,24 +1421,19 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1448,19 +1448,24 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1470,13 +1475,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1488,13 +1493,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_2.2/act_hhl_ty_config.xlsx
+++ b/config_2.2/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -720,7 +720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -1199,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>1000217</v>
+        <v>1000258</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>38</v>
@@ -1247,7 +1247,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>1000218</v>
+        <v>1000259</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>39</v>
@@ -1261,7 +1261,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>1000219</v>
+        <v>1000260</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>40</v>
@@ -1275,7 +1275,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>1000220</v>
+        <v>1000261</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>41</v>
@@ -1289,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>1000221</v>
+        <v>1000262</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>42</v>
@@ -1303,7 +1303,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>1000222</v>
+        <v>1000263</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>43</v>
@@ -1317,7 +1317,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <v>1000223</v>
+        <v>1000264</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>44</v>
@@ -1331,7 +1331,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <v>1000224</v>
+        <v>1000265</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>45</v>
@@ -1399,6 +1399,37 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1409,37 +1440,6 @@
 </pixelators>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
@@ -1447,13 +1447,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1465,13 +1465,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_2.2/act_hhl_ty_config.xlsx
+++ b/config_2.2/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>line|</t>
   </si>
@@ -328,6 +328,10 @@
   </si>
   <si>
     <t>line</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10,11,12,13,14,15,16</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -783,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -881,7 +885,7 @@
         <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1">
         <v>33</v>
@@ -915,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1504,24 +1508,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1536,19 +1535,24 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1556,13 +1560,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1574,13 +1578,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_2.2/act_hhl_ty_config.xlsx
+++ b/config_2.2/act_hhl_ty_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>line|</t>
   </si>
@@ -198,34 +198,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>act_00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_hhl</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>新年礼盒</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -262,10 +234,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>act_002_hhl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>swjl_1</t>
   </si>
   <si>
@@ -299,6 +267,10 @@
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_002_hhl_</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -749,7 +721,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -808,7 +780,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>48</v>
@@ -817,7 +789,7 @@
         <v>32</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
@@ -843,7 +815,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>49</v>
@@ -852,7 +824,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -920,16 +892,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="10">
         <v>15000</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="10">
         <v>1</v>
@@ -940,16 +912,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="10">
         <v>8000</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="10">
         <v>1</v>
@@ -960,16 +932,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" s="10">
         <v>5000</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="10">
         <v>1</v>
@@ -1001,7 +973,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="10">
         <v>12000</v>
@@ -1019,7 +991,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="10">
         <v>6000</v>
@@ -1055,7 +1027,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" s="10">
         <v>1200</v>
@@ -1070,16 +1042,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" s="13">
         <v>15000</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
@@ -1090,16 +1062,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="13">
         <v>8000</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
@@ -1110,16 +1082,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D12" s="13">
         <v>5000</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="13">
         <v>1</v>
@@ -1169,7 +1141,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" s="13">
         <v>6000</v>
@@ -1205,7 +1177,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D17" s="13">
         <v>1200</v>
@@ -1421,19 +1393,24 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1448,24 +1425,19 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1475,13 +1447,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1493,13 +1465,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_2.2/act_hhl_ty_config.xlsx
+++ b/config_2.2/act_hhl_ty_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>line|</t>
   </si>
@@ -179,10 +179,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>9,10,11,12,13,14,15,16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>新年礼盒</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -328,6 +324,10 @@
       </rPr>
       <t>10</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -418,7 +418,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -472,6 +472,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -780,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -840,7 +843,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>43</v>
@@ -849,7 +852,7 @@
         <v>32</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
@@ -875,16 +878,16 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1">
         <v>33</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -910,340 +913,392 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23" style="6" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="18.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21" style="6" customWidth="1"/>
+    <col min="5" max="5" width="34.375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23" style="6" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="10">
+        <v>15000</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="10">
+      <c r="E3" s="10">
+        <v>8000</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5000</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="10">
+        <v>24000</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="10">
+        <v>12000</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>6</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="10">
+        <v>6000</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2400</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="13">
         <v>15000</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="13">
+        <v>8000</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>3</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="13">
+        <v>5000</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="10">
+      <c r="G12" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="10">
-        <v>8000</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="10">
-        <v>5000</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="10">
+      <c r="E13" s="13">
         <v>24000</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="13">
         <v>12000</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C15" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="13">
         <v>6000</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="10">
+      <c r="E16" s="13">
         <v>2400</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="C17" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="13">
         <v>1200</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="13">
-        <v>15000</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="13">
-        <v>8000</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="13">
-        <v>5000</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="13">
-        <v>24000</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="13">
-        <v>12000</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="13">
-        <v>6000</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="13">
-        <v>2400</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="13">
-        <v>1200</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1449,6 +1504,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1459,7 +1524,7 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1470,7 +1535,7 @@
 </pixelators>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1480,58 +1545,48 @@
 </settings>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_2.2/act_hhl_ty_config.xlsx
+++ b/config_2.2/act_hhl_ty_config.xlsx
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1389,17 +1389,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1414,24 +1421,17 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1441,13 +1441,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1459,13 +1459,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_2.2/act_hhl_ty_config.xlsx
+++ b/config_2.2/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
   <si>
     <t>line|</t>
   </si>
@@ -95,19 +95,10 @@
     <t>pay_icon_gold9</t>
   </si>
   <si>
-    <t>高级核弹</t>
-  </si>
-  <si>
-    <t>中级核弹</t>
-  </si>
-  <si>
     <t>200万金币</t>
   </si>
   <si>
     <t>pay_icon_gold7</t>
-  </si>
-  <si>
-    <t>初级核弹</t>
   </si>
   <si>
     <t>1000万金币</t>
@@ -271,6 +262,78 @@
   </si>
   <si>
     <t>act_002_hhl_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹*1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>中级核弹*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>初级核弹*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小金锤*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小银锤*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -361,7 +424,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -411,6 +474,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -745,10 +811,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -780,16 +846,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1">
         <v>32</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
@@ -815,16 +881,16 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1">
         <v>33</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -852,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -892,16 +958,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D2" s="10">
         <v>15000</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F2" s="10">
         <v>1</v>
@@ -912,16 +978,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D3" s="10">
         <v>8000</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F3" s="10">
         <v>1</v>
@@ -932,16 +998,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D4" s="10">
         <v>5000</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F4" s="10">
         <v>1</v>
@@ -970,10 +1036,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6" s="10">
         <v>12000</v>
@@ -987,11 +1053,11 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>25</v>
+      <c r="B7" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" s="10">
         <v>6000</v>
@@ -1006,10 +1072,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="10">
         <v>2400</v>
@@ -1023,11 +1089,11 @@
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>28</v>
+      <c r="B9" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D9" s="10">
         <v>1200</v>
@@ -1042,16 +1108,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D10" s="13">
         <v>15000</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
@@ -1062,16 +1128,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D11" s="13">
         <v>8000</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
@@ -1082,16 +1148,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D12" s="13">
         <v>5000</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F12" s="13">
         <v>1</v>
@@ -1120,10 +1186,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14" s="13">
         <v>12000</v>
@@ -1137,11 +1203,11 @@
       <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>31</v>
+      <c r="B15" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D15" s="13">
         <v>6000</v>
@@ -1156,10 +1222,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="13">
         <v>2400</v>
@@ -1173,11 +1239,11 @@
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>32</v>
+      <c r="B17" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D17" s="13">
         <v>1200</v>
@@ -1191,7 +1257,7 @@
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1199,7 +1265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -1213,19 +1279,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1236,7 +1302,7 @@
         <v>1000258</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1">
         <v>45</v>
@@ -1250,7 +1316,7 @@
         <v>1000259</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1">
         <v>90</v>
@@ -1264,7 +1330,7 @@
         <v>1000260</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1">
         <v>150</v>
@@ -1278,7 +1344,7 @@
         <v>1000261</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1">
         <v>290</v>
@@ -1292,7 +1358,7 @@
         <v>1000262</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1">
         <v>590</v>
@@ -1306,7 +1372,7 @@
         <v>1000263</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <v>1490</v>
@@ -1320,7 +1386,7 @@
         <v>1000264</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1">
         <v>2990</v>
@@ -1334,7 +1400,7 @@
         <v>1000265</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1">
         <v>7490</v>
@@ -1399,13 +1465,25 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1419,25 +1497,13 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1447,13 +1513,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1465,13 +1531,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_2.2/act_hhl_ty_config.xlsx
+++ b/config_2.2/act_hhl_ty_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>line|</t>
   </si>
@@ -105,12 +105,6 @@
   </si>
   <si>
     <t>pay_icon_gold8</t>
-  </si>
-  <si>
-    <t>小金锤</t>
-  </si>
-  <si>
-    <t>小银锤</t>
   </si>
   <si>
     <t>ID</t>
@@ -811,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -846,16 +840,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1">
         <v>32</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
@@ -881,16 +875,16 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1">
         <v>33</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -919,7 +913,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -958,16 +952,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="10">
         <v>15000</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" s="10">
         <v>1</v>
@@ -978,16 +972,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="10">
         <v>8000</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="10">
         <v>1</v>
@@ -998,16 +992,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="10">
         <v>5000</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="10">
         <v>1</v>
@@ -1036,10 +1030,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" s="10">
         <v>12000</v>
@@ -1054,10 +1048,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" s="10">
         <v>6000</v>
@@ -1090,10 +1084,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="10">
         <v>1200</v>
@@ -1108,16 +1102,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="13">
         <v>15000</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
@@ -1128,16 +1122,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="13">
         <v>8000</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
@@ -1148,16 +1142,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="13">
         <v>5000</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="13">
         <v>1</v>
@@ -1204,10 +1198,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="13">
         <v>6000</v>
@@ -1240,10 +1234,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D17" s="13">
         <v>1200</v>
@@ -1279,19 +1273,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1302,7 +1296,7 @@
         <v>1000258</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1">
         <v>45</v>
@@ -1316,7 +1310,7 @@
         <v>1000259</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1">
         <v>90</v>
@@ -1330,7 +1324,7 @@
         <v>1000260</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1">
         <v>150</v>
@@ -1344,7 +1338,7 @@
         <v>1000261</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1">
         <v>290</v>
@@ -1358,7 +1352,7 @@
         <v>1000262</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1">
         <v>590</v>
@@ -1372,7 +1366,7 @@
         <v>1000263</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1">
         <v>1490</v>
@@ -1386,7 +1380,7 @@
         <v>1000264</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1">
         <v>2990</v>
@@ -1400,7 +1394,7 @@
         <v>1000265</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
         <v>7490</v>
@@ -1455,13 +1449,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1476,17 +1471,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -1496,18 +1500,8 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1519,13 +1513,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1537,7 +1531,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>